--- a/datasets/Dubai_TSF.xlsx
+++ b/datasets/Dubai_TSF.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Master matrials at APU\Semester 3 final\Time series analysis\Assigment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudmails-my.sharepoint.com/personal/tp068393_mail_apu_edu_my/Documents/Third Semester/02. Time Series/TST_R/TST_3SEM/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63944747-AD41-4EE4-B721-CF37FB06988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{63944747-AD41-4EE4-B721-CF37FB06988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4689EB-AFC4-004A-9B1F-0F5D020900B7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$421</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -105,6 +108,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,18 +377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
+      <selection activeCell="H226" sqref="H174:H226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -401,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44562</v>
       </c>
@@ -421,7 +429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44563</v>
       </c>
@@ -441,7 +449,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44564</v>
       </c>
@@ -461,7 +469,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44565</v>
       </c>
@@ -481,7 +489,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44566</v>
       </c>
@@ -501,7 +509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44567</v>
       </c>
@@ -521,7 +529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44568</v>
       </c>
@@ -541,7 +549,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44569</v>
       </c>
@@ -561,7 +569,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44570</v>
       </c>
@@ -581,7 +589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44571</v>
       </c>
@@ -601,7 +609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44572</v>
       </c>
@@ -621,7 +629,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44573</v>
       </c>
@@ -641,7 +649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44574</v>
       </c>
@@ -661,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44575</v>
       </c>
@@ -681,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44576</v>
       </c>
@@ -701,7 +709,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44577</v>
       </c>
@@ -721,7 +729,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44578</v>
       </c>
@@ -741,7 +749,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44579</v>
       </c>
@@ -761,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44580</v>
       </c>
@@ -781,7 +789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44581</v>
       </c>
@@ -801,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44582</v>
       </c>
@@ -821,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44583</v>
       </c>
@@ -841,7 +849,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44584</v>
       </c>
@@ -861,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44585</v>
       </c>
@@ -881,7 +889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44586</v>
       </c>
@@ -901,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44587</v>
       </c>
@@ -921,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44588</v>
       </c>
@@ -941,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44589</v>
       </c>
@@ -961,7 +969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44590</v>
       </c>
@@ -981,7 +989,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44591</v>
       </c>
@@ -1001,7 +1009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44592</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44593</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44594</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44595</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44596</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44597</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44598</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44599</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44600</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44601</v>
       </c>
@@ -1201,7 +1209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44602</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44603</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44604</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44605</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44606</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44607</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44608</v>
       </c>
@@ -1341,7 +1349,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44609</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44610</v>
       </c>
@@ -1381,7 +1389,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44611</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44612</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44613</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44614</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44615</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44616</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44617</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44618</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44619</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44620</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44621</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44622</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44623</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44624</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44625</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44626</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44627</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44628</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44629</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44630</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44631</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44632</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44633</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44634</v>
       </c>
@@ -1861,7 +1869,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44635</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44636</v>
       </c>
@@ -1901,7 +1909,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44637</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44638</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44639</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44640</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44641</v>
       </c>
@@ -2001,7 +2009,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44642</v>
       </c>
@@ -2021,7 +2029,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44643</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44644</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44645</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44646</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44647</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44648</v>
       </c>
@@ -2141,7 +2149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44649</v>
       </c>
@@ -2161,7 +2169,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44650</v>
       </c>
@@ -2181,7 +2189,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44651</v>
       </c>
@@ -2201,7 +2209,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44652</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44653</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44654</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44655</v>
       </c>
@@ -2281,7 +2289,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44656</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>44657</v>
       </c>
@@ -2321,7 +2329,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>44658</v>
       </c>
@@ -2341,7 +2349,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>44659</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>44660</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>44661</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>44662</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>44663</v>
       </c>
@@ -2441,7 +2449,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>44664</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>44665</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>44666</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>44667</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44668</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>44669</v>
       </c>
@@ -2561,7 +2569,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44670</v>
       </c>
@@ -2581,7 +2589,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>44671</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44672</v>
       </c>
@@ -2621,7 +2629,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>44673</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>44674</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>44675</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44676</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44677</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>44678</v>
       </c>
@@ -2741,7 +2749,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44679</v>
       </c>
@@ -2761,7 +2769,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>44680</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>44681</v>
       </c>
@@ -2801,7 +2809,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>44682</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>44683</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>44684</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44685</v>
       </c>
@@ -2881,7 +2889,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44686</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44687</v>
       </c>
@@ -2921,7 +2929,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44688</v>
       </c>
@@ -2941,7 +2949,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44689</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44690</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44691</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44692</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44693</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44694</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44695</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44696</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44697</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>44698</v>
       </c>
@@ -3141,7 +3149,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>44699</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44700</v>
       </c>
@@ -3181,7 +3189,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44701</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44702</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>44703</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>44704</v>
       </c>
@@ -3261,7 +3269,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>44705</v>
       </c>
@@ -3281,7 +3289,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>44706</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>44707</v>
       </c>
@@ -3321,7 +3329,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>44708</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>44709</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>44710</v>
       </c>
@@ -3381,7 +3389,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>44711</v>
       </c>
@@ -3401,7 +3409,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>44712</v>
       </c>
@@ -3421,7 +3429,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44713</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44714</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44715</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>44716</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>44717</v>
       </c>
@@ -3521,7 +3529,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>44718</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>44719</v>
       </c>
@@ -3561,7 +3569,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>44720</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>44721</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>44722</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>44723</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44724</v>
       </c>
@@ -3661,7 +3669,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44725</v>
       </c>
@@ -3681,7 +3689,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44726</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44727</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44728</v>
       </c>
@@ -3741,7 +3749,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44729</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44730</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44731</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44732</v>
       </c>
@@ -3821,7 +3829,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44733</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44734</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44735</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44736</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>44737</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44738</v>
       </c>
@@ -3941,7 +3949,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>44739</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44740</v>
       </c>
@@ -3981,7 +3989,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>44741</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>44742</v>
       </c>
@@ -4021,7 +4029,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>44743</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>44744</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>44745</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>44746</v>
       </c>
@@ -4101,7 +4109,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>44747</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44748</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44749</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>44750</v>
       </c>
@@ -4181,7 +4189,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44751</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>44752</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44753</v>
       </c>
@@ -4241,7 +4249,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44754</v>
       </c>
@@ -4261,7 +4269,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>44755</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44756</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>44757</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44758</v>
       </c>
@@ -4341,7 +4349,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>44759</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44760</v>
       </c>
@@ -4381,7 +4389,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>44761</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>44762</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44763</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44764</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44765</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44766</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>44767</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44768</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>44769</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44770</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>44771</v>
       </c>
@@ -4601,7 +4609,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>44772</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>44773</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>44774</v>
       </c>
@@ -4661,7 +4669,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>44775</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>44776</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>44777</v>
       </c>
@@ -4721,7 +4729,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>44778</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>44779</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>44780</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>44781</v>
       </c>
@@ -4801,7 +4809,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>44782</v>
       </c>
@@ -4821,7 +4829,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>44783</v>
       </c>
@@ -4841,7 +4849,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>44784</v>
       </c>
@@ -4861,7 +4869,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>44785</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>44786</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>44787</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>44788</v>
       </c>
@@ -4941,7 +4949,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>44789</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>44790</v>
       </c>
@@ -4981,7 +4989,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>44791</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>44792</v>
       </c>
@@ -5021,7 +5029,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>44793</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>44794</v>
       </c>
@@ -5061,7 +5069,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>44795</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>44796</v>
       </c>
@@ -5101,7 +5109,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44797</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44798</v>
       </c>
@@ -5141,7 +5149,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44799</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44800</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44801</v>
       </c>
@@ -5201,7 +5209,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44802</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44803</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44804</v>
       </c>
@@ -5261,7 +5269,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44805</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44806</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44807</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44808</v>
       </c>
@@ -5341,7 +5349,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44809</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44810</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44811</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44812</v>
       </c>
@@ -5421,7 +5429,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44813</v>
       </c>
@@ -5441,7 +5449,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44814</v>
       </c>
@@ -5461,7 +5469,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44815</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44816</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44817</v>
       </c>
@@ -5521,7 +5529,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44818</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44819</v>
       </c>
@@ -5561,7 +5569,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44820</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44821</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44822</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44823</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44824</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44825</v>
       </c>
@@ -5681,7 +5689,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44826</v>
       </c>
@@ -5701,7 +5709,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44827</v>
       </c>
@@ -5721,7 +5729,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44828</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44829</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44830</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44831</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44832</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>44833</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>44834</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>44835</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>44836</v>
       </c>
@@ -5901,7 +5909,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>44837</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>44838</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>44839</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>44840</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>44841</v>
       </c>
@@ -6001,7 +6009,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>44842</v>
       </c>
@@ -6021,7 +6029,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>44843</v>
       </c>
@@ -6041,7 +6049,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>44844</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>44845</v>
       </c>
@@ -6081,7 +6089,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>44846</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>44847</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>44848</v>
       </c>
@@ -6141,7 +6149,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>44849</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>44850</v>
       </c>
@@ -6181,7 +6189,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>44851</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>44852</v>
       </c>
@@ -6221,7 +6229,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>44853</v>
       </c>
@@ -6241,7 +6249,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>44854</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>44855</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>44856</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>44857</v>
       </c>
@@ -6321,7 +6329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>44858</v>
       </c>
@@ -6341,7 +6349,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>44859</v>
       </c>
@@ -6361,7 +6369,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>44860</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44861</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>44862</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44863</v>
       </c>
@@ -6441,7 +6449,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>44864</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>44865</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>44866</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>44867</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>44868</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>44869</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>44870</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>44871</v>
       </c>
@@ -6601,7 +6609,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>44872</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>44873</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>44874</v>
       </c>
@@ -6661,7 +6669,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>44875</v>
       </c>
@@ -6681,7 +6689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>44876</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>44877</v>
       </c>
@@ -6721,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>44878</v>
       </c>
@@ -6741,7 +6749,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>44879</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>44880</v>
       </c>
@@ -6781,7 +6789,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>44881</v>
       </c>
@@ -6801,7 +6809,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>44882</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>44883</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>44884</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>44885</v>
       </c>
@@ -6881,7 +6889,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>44886</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>44887</v>
       </c>
@@ -6921,7 +6929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>44888</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>44889</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>44890</v>
       </c>
@@ -6981,7 +6989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>44891</v>
       </c>
@@ -7001,7 +7009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>44892</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>44893</v>
       </c>
@@ -7041,7 +7049,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>44894</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>44895</v>
       </c>
@@ -7081,7 +7089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>44896</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>44897</v>
       </c>
@@ -7121,7 +7129,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>44898</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>44899</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>44900</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>44901</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>44902</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>44903</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>44904</v>
       </c>
@@ -7261,7 +7269,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>44905</v>
       </c>
@@ -7281,7 +7289,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>44906</v>
       </c>
@@ -7301,7 +7309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>44907</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>44908</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>44909</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>44910</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>44911</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>44912</v>
       </c>
@@ -7421,7 +7429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>44913</v>
       </c>
@@ -7441,7 +7449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>44914</v>
       </c>
@@ -7461,7 +7469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>44915</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>44916</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>44917</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>44918</v>
       </c>
@@ -7541,7 +7549,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>44919</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>44920</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>44921</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>44922</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>44923</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>44924</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>44925</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>44926</v>
       </c>
@@ -7701,7 +7709,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>44927</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>44928</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>44929</v>
       </c>
@@ -7761,7 +7769,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>44930</v>
       </c>
@@ -7781,7 +7789,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>44931</v>
       </c>
@@ -7801,7 +7809,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>44932</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>44933</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>44934</v>
       </c>
@@ -7861,7 +7869,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>44935</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>44936</v>
       </c>
@@ -7901,7 +7909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>44937</v>
       </c>
@@ -7921,7 +7929,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>44938</v>
       </c>
@@ -7941,7 +7949,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>44939</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>44940</v>
       </c>
@@ -7981,7 +7989,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>44941</v>
       </c>
@@ -8001,7 +8009,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>44942</v>
       </c>
@@ -8021,7 +8029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>44943</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>44944</v>
       </c>
@@ -8061,7 +8069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>44945</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>44946</v>
       </c>
@@ -8101,7 +8109,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>44947</v>
       </c>
@@ -8121,7 +8129,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>44948</v>
       </c>
@@ -8141,7 +8149,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>44949</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>44950</v>
       </c>
@@ -8181,7 +8189,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>44951</v>
       </c>
@@ -8201,7 +8209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>44952</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>44953</v>
       </c>
@@ -8241,7 +8249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>44954</v>
       </c>
@@ -8261,7 +8269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>44955</v>
       </c>
@@ -8281,7 +8289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>44956</v>
       </c>
@@ -8301,7 +8309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>44957</v>
       </c>
@@ -8321,7 +8329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>44958</v>
       </c>
@@ -8341,7 +8349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>44959</v>
       </c>
@@ -8361,7 +8369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>44960</v>
       </c>
@@ -8381,7 +8389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>44961</v>
       </c>
@@ -8401,7 +8409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>44962</v>
       </c>
@@ -8421,7 +8429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>44963</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>44964</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>44965</v>
       </c>
@@ -8481,7 +8489,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>44966</v>
       </c>
@@ -8501,7 +8509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>44967</v>
       </c>
@@ -8521,7 +8529,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>44968</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>44969</v>
       </c>
@@ -8561,7 +8569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>44970</v>
       </c>
@@ -8581,7 +8589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>44971</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>44972</v>
       </c>
@@ -8621,7 +8629,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>44973</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>44974</v>
       </c>
@@ -8661,7 +8669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>44975</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>44976</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>44977</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>44978</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>44979</v>
       </c>
@@ -8761,7 +8769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>44980</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>44981</v>
       </c>
@@ -8802,6 +8810,34 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D421" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="14.2"/>
+        <filter val="18.7"/>
+        <filter val="22.3"/>
+        <filter val="22.9"/>
+        <filter val="23.3"/>
+        <filter val="23.8"/>
+        <filter val="24.3"/>
+        <filter val="24.5"/>
+        <filter val="24.6"/>
+        <filter val="24.8"/>
+        <filter val="25.3"/>
+        <filter val="26.6"/>
+        <filter val="26.8"/>
+        <filter val="27.1"/>
+        <filter val="27.5"/>
+        <filter val="27.6"/>
+        <filter val="27.8"/>
+        <filter val="28"/>
+        <filter val="28.7"/>
+        <filter val="29.2"/>
+        <filter val="29.9"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
